--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="15135"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="13155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>MOSFET n-chan 40v 3.6A SOT-23-3</t>
   </si>
   <si>
-    <t>IRLML0040TROBFCT-ND</t>
-  </si>
-  <si>
     <t>Q2, Q3, Q4</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>Board total</t>
+  </si>
+  <si>
+    <t>IRLML0040TRPBFCT-ND</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +629,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -642,15 +642,15 @@
         <v>0.9930000000000001</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -663,15 +663,15 @@
         <v>0.54</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -684,15 +684,15 @@
         <v>0.83</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -705,15 +705,15 @@
         <v>0.18</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
         <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -726,12 +726,12 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -764,10 +764,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <f>SUM(E2:E11)</f>
@@ -791,7 +791,7 @@
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19">
         <f>SUM(E2:E13)</f>
@@ -800,7 +800,7 @@
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <f>SUM(E2:E16)</f>
